--- a/table/source/Skin.xlsx
+++ b/table/source/Skin.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,14 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>monster_001_skin_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_002_skin_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -370,15 +378,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.875" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
@@ -417,6 +425,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
